--- a/biology/Médecine/Adelmota_de_Carrare/Adelmota_de_Carrare.xlsx
+++ b/biology/Médecine/Adelmota_de_Carrare/Adelmota_de_Carrare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelmota de Carrare, également connue sous le nom d'Adelmota Maltraverse ou Maltraversa[1], est une médecin et obstétricienne italienne exercant à Padoue au XIVe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelmota de Carrare, également connue sous le nom d'Adelmota Maltraverse ou Maltraversa, est une médecin et obstétricienne italienne exercant à Padoue au XIVe siècle.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille du Comte de Castelnuovo, elle épouse Jacques, prince de Carrare[2],[3].
-On sait peu de choses sur Adelmota de Carrare, excepté les notes du rédacteur Joannes Rhodius (1587-1659)[4], un érudit danois qui a vécu à Padoue au XVIIe siècle. Il déclare dans son livre Scribonius Largus qu'elle était « une médecin très savante » et particulièrement douée en tant qu'obstétricienne[2],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille du Comte de Castelnuovo, elle épouse Jacques, prince de Carrare,.
+On sait peu de choses sur Adelmota de Carrare, excepté les notes du rédacteur Joannes Rhodius (1587-1659), un érudit danois qui a vécu à Padoue au XVIIe siècle. Il déclare dans son livre Scribonius Largus qu'elle était « une médecin très savante » et particulièrement douée en tant qu'obstétricienne.
 Selon Baudouin, elle exerce la médecine entre 1318 et 1324.
 </t>
         </is>
